--- a/mySystem/mySystem/xls/CSBag/SOP-MFG-102-R01A  生产领料使用记录.xlsx
+++ b/mySystem/mySystem/xls/CSBag/SOP-MFG-102-R01A  生产领料使用记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\303，CS   2#制袋岗位记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCXFD\Github\hzkx\mitcpro\mySystem\mySystem\xls\CSBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <r>
       <rPr>
@@ -237,6 +237,219 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>领料人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复核人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日期：</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOP-MFG-102-R01A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PEF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>膜</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>XP1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>膜</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UP1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>膜</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>废</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>品：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>kg</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>领料物料外观检查</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取
+件数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">备注：物料数量单位---膜材用米，其余物料用个。物料外观检查：应干净，无可见异物。
+物料平衡=接上班+领取-使用-退库，应为0；膜卷以长度计数，偏差应≤2%；管类以长度计数，允许偏差为每整包±1M。
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -421,156 +634,6 @@
       </rPr>
       <t>日期：</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> SOP-MFG-102-R01A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PEF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>膜</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>XP1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>膜</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>UP1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>膜</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>废</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>品：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>kg</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>领料物料外观检查</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>管</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>T001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取
-件数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">备注：物料数量单位---膜材用米，其余物料用个。物料外观检查：应干净，无可见异物。
-物料平衡=接上班+领取-使用-退库，应为0；膜卷以长度计数，偏差应≤2%；管类以长度计数，允许偏差为每整包±1M。
-</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -781,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -861,12 +924,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -888,29 +975,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1204,7 +1276,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.2" customHeight="1"/>
@@ -1240,50 +1312,50 @@
       <c r="M1" s="23"/>
       <c r="N1" s="1"/>
       <c r="O1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="35.450000000000003" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
@@ -1291,10 +1363,10 @@
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1308,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>11</v>
@@ -1323,7 +1395,7 @@
         <v>14</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>15</v>
@@ -1336,8 +1408,8 @@
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
@@ -1360,7 +1432,7 @@
         <v>22</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -1369,10 +1441,10 @@
       <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
@@ -1383,7 +1455,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -1392,10 +1464,10 @@
       <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
@@ -1406,7 +1478,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -1415,10 +1487,10 @@
       <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
@@ -1429,7 +1501,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -1438,8 +1510,8 @@
       <c r="A9" s="10">
         <v>5</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="11" t="s">
         <v>23</v>
       </c>
@@ -1452,7 +1524,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -1461,8 +1533,8 @@
       <c r="A10" s="10">
         <v>6</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="11" t="s">
         <v>24</v>
       </c>
@@ -1475,7 +1547,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -1484,8 +1556,8 @@
       <c r="A11" s="10">
         <v>7</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="15" t="s">
         <v>25</v>
       </c>
@@ -1498,7 +1570,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
@@ -1507,8 +1579,8 @@
       <c r="A12" s="10">
         <v>8</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="15"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
@@ -1519,7 +1591,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -1528,8 +1600,8 @@
       <c r="A13" s="10">
         <v>9</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="15" t="s">
         <v>26</v>
       </c>
@@ -1542,15 +1614,15 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
     </row>
     <row r="14" spans="1:17" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="15" t="s">
         <v>27</v>
       </c>
@@ -1563,15 +1635,15 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:17" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="15"/>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
@@ -1582,20 +1654,20 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:17" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A16" s="10"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F16" s="13">
         <v>2017020201</v>
@@ -1619,15 +1691,15 @@
         <v>3</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
     </row>
     <row r="17" spans="1:15" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A17" s="10"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="15"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
@@ -1638,50 +1710,50 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A18" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
+      <c r="A18" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="O18" s="37"/>
+      <c r="N18" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="35"/>
     </row>
     <row r="19" spans="1:15" ht="27" customHeight="1">
-      <c r="A19" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="40"/>
+      <c r="A19" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="29"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" customHeight="1">
       <c r="B20" s="18"/>
@@ -1700,11 +1772,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A19:O19"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B15:C15"/>
@@ -1715,12 +1788,11 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A19:O19"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1733,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F11"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.2" customHeight="1"/>
@@ -1767,46 +1839,46 @@
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="35.450000000000003" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
@@ -1814,10 +1886,10 @@
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1853,28 +1925,16 @@
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>22</v>
-      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
     </row>
@@ -1882,11 +1942,9 @@
       <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -1901,11 +1959,9 @@
       <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -1920,11 +1976,9 @@
       <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="11" t="s">
-        <v>35</v>
-      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -1939,11 +1993,9 @@
       <c r="A9" s="10">
         <v>5</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -1958,11 +2010,9 @@
       <c r="A10" s="10">
         <v>6</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -1977,11 +2027,9 @@
       <c r="A11" s="10">
         <v>7</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -1996,8 +2044,8 @@
       <c r="A12" s="10">
         <v>8</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="15"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
@@ -2013,11 +2061,9 @@
       <c r="A13" s="10">
         <v>9</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -2032,11 +2078,9 @@
       <c r="A14" s="10">
         <v>10</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="15" t="s">
-        <v>27</v>
-      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -2048,9 +2092,11 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:15" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="A15" s="10">
+        <v>11</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="15"/>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
@@ -2070,35 +2116,35 @@
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="37"/>
+      <c r="F16" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="35"/>
     </row>
     <row r="17" spans="1:13" ht="27" customHeight="1">
-      <c r="A17" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="40"/>
+      <c r="A17" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="46"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" customHeight="1">
       <c r="B18" s="18"/>
@@ -2115,13 +2161,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:M16"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:D3"/>
@@ -2134,6 +2173,13 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:M16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
